--- a/Day 2 Lab Challenge/Build List v1.1.xlsx
+++ b/Day 2 Lab Challenge/Build List v1.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>Your demo environment build list</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>WEB-to-MGMT-out</t>
-  </si>
-  <si>
-    <t>10.0.255.4/32</t>
   </si>
   <si>
     <t>MGMT-to-APP01-out</t>
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView zoomScale="197" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScale="197" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1003,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="109" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="167" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1349,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
@@ -1360,7 +1357,7 @@
         <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
         <v>68</v>
@@ -1372,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
@@ -1380,7 +1377,7 @@
         <v>3020</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -1395,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
@@ -1433,32 +1430,32 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
